--- a/RisultatiPowDroid/Risultati App ottimizzata.xlsx
+++ b/RisultatiPowDroid/Risultati App ottimizzata.xlsx
@@ -1,26 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biagi\Desktop\Progetto-Operating_systems_for_mobile_cloud_and_IoT\RisultatiPowDroid\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56AA88-959E-42FD-95D9-88BC491B6136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Risultati App non ottimizzata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+  <si>
+    <t>Scenario 5</t>
+  </si>
+  <si>
+    <t>Prova 1</t>
+  </si>
+  <si>
+    <t>Prova 2</t>
+  </si>
+  <si>
+    <t>Prova 3</t>
+  </si>
+  <si>
+    <t>Prova 4</t>
+  </si>
+  <si>
+    <t>Prova 5</t>
+  </si>
+  <si>
+    <t>Energy (J)</t>
+  </si>
+  <si>
+    <t>Duration (S)</t>
+  </si>
+  <si>
+    <t>Scenario 3</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Joule</t>
+  </si>
+  <si>
+    <t>Joule/Minuti</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Dev Stand</t>
+  </si>
+  <si>
+    <t>Durata</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Test App</t>
+  </si>
+  <si>
+    <t>Scenario2</t>
+  </si>
+  <si>
+    <t>Scenario3</t>
+  </si>
+  <si>
+    <t>Scenario5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +113,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,12 +185,155 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +349,4185 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Scenario5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$C$5:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>101.74299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.453999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.21599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.418000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>103.505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$D$5:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>133.066329</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.647870999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.199432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.145983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.755549000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9752-4391-86FA-63FAB127AE8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1902193055"/>
+        <c:axId val="1893190431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1902193055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Duration (S)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1893190431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1893190431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Energy (J)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1902193055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Scenario3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>59.753</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.411999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52951</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71.509658000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.098872999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.402011999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.126869999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.315173000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C04-4109-82FD-AC656B87A90A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1836171807"/>
+        <c:axId val="2058411871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1836171807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Duration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058411871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2058411871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Energy (J)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836171807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Scenario2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$M$5:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>135.14699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131.483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.31899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$N$5:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>190.88302899999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.69038399999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>188.336545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157.655112</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202.39423099999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF2B-4C86-A743-98339F195FE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2067421727"/>
+        <c:axId val="2058406415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2067421727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Duration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (S)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058406415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2058406415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Energy (J)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067421727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Test App</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$R$5:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133.93099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10629.555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.46720000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Risultati App non ottimizzata'!$S$5:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>178.59186019999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.890517200000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.1630328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-140F-435D-9831-59AFC25430A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1836169887"/>
+        <c:axId val="2058383599"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1836169887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Duration (S)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2058383599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2058383599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Energy (J)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1836169887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22523</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>354106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>18602</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948CD649-88EE-8ECE-8C27-BCD5FA7F9D46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1088877</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>347383</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9210984E-B078-1950-74B7-28522FFAE95D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>18602</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C27F77F-CF05-E083-CAF8-B3F9E412E923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1092462</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>10533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>46729</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>347383</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE8C3E2-54FD-CF38-AD05-777E1A0B63A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +4792,519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U25" sqref="A1:U25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="2" customWidth="1"/>
+    <col min="2" max="5" width="16.21875" style="2"/>
+    <col min="6" max="6" width="9.109375" style="2" customWidth="1"/>
+    <col min="7" max="10" width="16.21875" style="2"/>
+    <col min="11" max="11" width="9.109375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="16.21875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="L4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="Q4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>101.74299999999999</v>
+      </c>
+      <c r="D5" s="16">
+        <v>133.066329</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="G5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>59.753</v>
+      </c>
+      <c r="I5" s="16">
+        <v>71.509658000000002</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="L5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="18">
+        <v>135.14699999999999</v>
+      </c>
+      <c r="N5" s="18">
+        <v>190.88302899999999</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="Q5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="6">
+        <f>M12</f>
+        <v>133.93099999999998</v>
+      </c>
+      <c r="S5" s="6">
+        <f>N12</f>
+        <v>178.59186019999999</v>
+      </c>
+      <c r="T5" s="5"/>
+    </row>
+    <row r="6" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="16">
+        <v>94.453999999999994</v>
+      </c>
+      <c r="D6" s="16">
+        <v>89.647870999999995</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="G6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>38.305</v>
+      </c>
+      <c r="I6" s="16">
+        <v>67.098872999999998</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="L6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="18">
+        <v>134.84899999999999</v>
+      </c>
+      <c r="N6" s="18">
+        <v>153.69038399999999</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="Q6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="6">
+        <f>H12</f>
+        <v>10629.555</v>
+      </c>
+      <c r="S6" s="6">
+        <f>I12</f>
+        <v>69.890517200000005</v>
+      </c>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="16">
+        <v>103.21599999999999</v>
+      </c>
+      <c r="D7" s="16">
+        <v>158.199432</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="G7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="16">
+        <v>55.305</v>
+      </c>
+      <c r="I7" s="16">
+        <v>48.402011999999999</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="L7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="18">
+        <v>131.483</v>
+      </c>
+      <c r="N7" s="18">
+        <v>188.336545</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="Q7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="6">
+        <f>C12</f>
+        <v>100.46720000000001</v>
+      </c>
+      <c r="S7" s="6">
+        <f>D12</f>
+        <v>125.1630328</v>
+      </c>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16">
+        <v>99.418000000000006</v>
+      </c>
+      <c r="D8" s="16">
+        <v>146.145983</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="G8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="16">
+        <v>43.411999999999999</v>
+      </c>
+      <c r="I8" s="16">
+        <v>70.126869999999997</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="L8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="18">
+        <v>135.31899999999999</v>
+      </c>
+      <c r="N8" s="18">
+        <v>157.655112</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="Q8" s="7"/>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16">
+        <v>103.505</v>
+      </c>
+      <c r="D9" s="16">
+        <v>98.755549000000002</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="G9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="16">
+        <v>52951</v>
+      </c>
+      <c r="I9" s="16">
+        <v>92.315173000000001</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="L9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="18">
+        <v>132.857</v>
+      </c>
+      <c r="N9" s="18">
+        <v>202.39423099999999</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="J10" s="5"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="5"/>
+      <c r="Q10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="6">
+        <f>AVERAGE(R5:R7)</f>
+        <v>3621.3177333333333</v>
+      </c>
+      <c r="S10" s="6">
+        <f>AVERAGE(S5:S7)</f>
+        <v>124.54847006666667</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" ref="T10:T11" si="0">S10/R10</f>
+        <v>3.4393135106657126E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="6">
+        <f>MEDIAN(R5:R7)</f>
+        <v>133.93099999999998</v>
+      </c>
+      <c r="S11" s="6">
+        <f>MEDIAN(S5:S7)</f>
+        <v>125.1630328</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.9345336986955971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6">
+        <f>AVERAGE(C5:C9)</f>
+        <v>100.46720000000001</v>
+      </c>
+      <c r="D12" s="6">
+        <f>AVERAGE(D5:D9)</f>
+        <v>125.1630328</v>
+      </c>
+      <c r="E12" s="5">
+        <f>D12/C12</f>
+        <v>1.2458099041279143</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6">
+        <f>AVERAGE(H5:H9)</f>
+        <v>10629.555</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" ref="I12" si="1">AVERAGE(I5:I9)</f>
+        <v>69.890517200000005</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" ref="J12:J13" si="2">I12/H12</f>
+        <v>6.5751122412932624E-3</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="21">
+        <f t="shared" ref="M12:N12" si="3">AVERAGE(M5:M9)</f>
+        <v>133.93099999999998</v>
+      </c>
+      <c r="N12" s="21">
+        <f t="shared" si="3"/>
+        <v>178.59186019999999</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" ref="O12:O13" si="4">N12/M12</f>
+        <v>1.3334617093876697</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="8">
+        <f>_xlfn.STDEV.P(R5:R7)</f>
+        <v>4955.590926478847</v>
+      </c>
+      <c r="S12" s="8">
+        <f>_xlfn.STDEV.P(S5:S7)</f>
+        <v>44.379265113457421</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
+        <f>MEDIAN(C5:C9)</f>
+        <v>101.74299999999999</v>
+      </c>
+      <c r="D13" s="6">
+        <f>MEDIAN(D5:D9)</f>
+        <v>133.066329</v>
+      </c>
+      <c r="E13" s="5">
+        <f>D13/C13</f>
+        <v>1.30786716530867</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" ref="H13:I13" si="5">MEDIAN(H5:H9)</f>
+        <v>55.305</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="5"/>
+        <v>70.126869999999997</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2680023506012115</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="21">
+        <f t="shared" ref="M13:N13" si="6">MEDIAN(M5:M9)</f>
+        <v>134.84899999999999</v>
+      </c>
+      <c r="N13" s="21">
+        <f t="shared" si="6"/>
+        <v>188.336545</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3966476948290312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8">
+        <f>_xlfn.STDEV.P(C5:C9)</f>
+        <v>3.3368005873890634</v>
+      </c>
+      <c r="D14" s="8">
+        <f>_xlfn.STDEV.P(D5:D9)</f>
+        <v>26.656450927870459</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" ref="H14" si="7">_xlfn.STDEV.P(H5:H9)</f>
+        <v>21160.723921684144</v>
+      </c>
+      <c r="I14" s="8">
+        <f>_xlfn.STDEV.P(I5:I9)</f>
+        <v>13.964897424575572</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" ref="M14:N14" si="8">_xlfn.STDEV.P(M5:M9)</f>
+        <v>1.5095763644148585</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="8"/>
+        <v>19.344329971087195</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/RisultatiPowDroid/Risultati App ottimizzata.xlsx
+++ b/RisultatiPowDroid/Risultati App ottimizzata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biagi\Desktop\Progetto-Operating_systems_for_mobile_cloud_and_IoT\RisultatiPowDroid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56AA88-959E-42FD-95D9-88BC491B6136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3B0C50-E065-4677-9EB7-A36C8E9D87EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,19 +105,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -269,69 +263,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,19 +434,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>101.74299999999999</c:v>
+                  <c:v>102.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.453999999999994</c:v>
+                  <c:v>101.68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.21599999999999</c:v>
+                  <c:v>106.717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.418000000000006</c:v>
+                  <c:v>103.81399999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103.505</c:v>
+                  <c:v>103.205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,19 +458,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>133.066329</c:v>
+                  <c:v>107.099188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89.647870999999995</c:v>
+                  <c:v>79.198443999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.199432</c:v>
+                  <c:v>150.24098000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146.145983</c:v>
+                  <c:v>146.27462</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98.755549000000002</c:v>
+                  <c:v>91.627950999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,19 +886,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>59.753</c:v>
+                  <c:v>40.329000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.305</c:v>
+                  <c:v>39.984000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.305</c:v>
+                  <c:v>40.356000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43.411999999999999</c:v>
+                  <c:v>39.929000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52951</c:v>
+                  <c:v>39.134999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,19 +910,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>71.509658000000002</c:v>
+                  <c:v>82.498931999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.098872999999998</c:v>
+                  <c:v>41.610183999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.402011999999999</c:v>
+                  <c:v>35.400556999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.126869999999997</c:v>
+                  <c:v>35.813851999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.315173000000001</c:v>
+                  <c:v>75.86251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,19 +1343,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>135.14699999999999</c:v>
+                  <c:v>138.566</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134.84899999999999</c:v>
+                  <c:v>138.81700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.483</c:v>
+                  <c:v>139.88499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135.31899999999999</c:v>
+                  <c:v>139.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.857</c:v>
+                  <c:v>137.89099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,19 +1367,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>190.88302899999999</c:v>
+                  <c:v>192.95286899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>153.69038399999999</c:v>
+                  <c:v>205.80058399999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>188.336545</c:v>
+                  <c:v>199.97241500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157.655112</c:v>
+                  <c:v>150.84999300000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202.39423099999999</c:v>
+                  <c:v>151.17600100000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1824,13 +1800,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>133.93099999999998</c:v>
+                  <c:v>138.95179999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10629.555</c:v>
+                  <c:v>39.946600000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.46720000000001</c:v>
+                  <c:v>103.67720000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1842,13 +1818,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>178.59186019999999</c:v>
+                  <c:v>180.15037240000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.890517200000005</c:v>
+                  <c:v>54.237206999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.1630328</c:v>
+                  <c:v>114.88823659999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4796,7 +4772,7 @@
   <dimension ref="A2:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U25" sqref="A1:U25"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.21875" defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4849,7 +4825,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="4"/>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="M4" s="14" t="s">
@@ -4874,31 +4850,31 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
-        <v>101.74299999999999</v>
-      </c>
-      <c r="D5" s="16">
-        <v>133.066329</v>
+      <c r="C5" s="2">
+        <v>102.97</v>
+      </c>
+      <c r="D5" s="2">
+        <v>107.099188</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="16">
-        <v>59.753</v>
-      </c>
-      <c r="I5" s="16">
-        <v>71.509658000000002</v>
+      <c r="H5" s="2">
+        <v>40.329000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>82.498931999999996</v>
       </c>
       <c r="J5" s="5"/>
       <c r="L5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="18">
-        <v>135.14699999999999</v>
-      </c>
-      <c r="N5" s="18">
-        <v>190.88302899999999</v>
+      <c r="M5" s="2">
+        <v>138.566</v>
+      </c>
+      <c r="N5" s="2">
+        <v>192.95286899999999</v>
       </c>
       <c r="O5" s="5"/>
       <c r="Q5" s="15" t="s">
@@ -4906,11 +4882,11 @@
       </c>
       <c r="R5" s="6">
         <f>M12</f>
-        <v>133.93099999999998</v>
+        <v>138.95179999999999</v>
       </c>
       <c r="S5" s="6">
         <f>N12</f>
-        <v>178.59186019999999</v>
+        <v>180.15037240000001</v>
       </c>
       <c r="T5" s="5"/>
     </row>
@@ -4918,31 +4894,31 @@
       <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16">
-        <v>94.453999999999994</v>
-      </c>
-      <c r="D6" s="16">
-        <v>89.647870999999995</v>
+      <c r="C6" s="2">
+        <v>101.68</v>
+      </c>
+      <c r="D6" s="2">
+        <v>79.198443999999995</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="16">
-        <v>38.305</v>
-      </c>
-      <c r="I6" s="16">
-        <v>67.098872999999998</v>
+      <c r="H6" s="2">
+        <v>39.984000000000002</v>
+      </c>
+      <c r="I6" s="2">
+        <v>41.610183999999997</v>
       </c>
       <c r="J6" s="5"/>
       <c r="L6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="18">
-        <v>134.84899999999999</v>
-      </c>
-      <c r="N6" s="18">
-        <v>153.69038399999999</v>
+      <c r="M6" s="2">
+        <v>138.81700000000001</v>
+      </c>
+      <c r="N6" s="2">
+        <v>205.80058399999999</v>
       </c>
       <c r="O6" s="5"/>
       <c r="Q6" s="15" t="s">
@@ -4950,11 +4926,11 @@
       </c>
       <c r="R6" s="6">
         <f>H12</f>
-        <v>10629.555</v>
+        <v>39.946600000000004</v>
       </c>
       <c r="S6" s="6">
         <f>I12</f>
-        <v>69.890517200000005</v>
+        <v>54.237206999999998</v>
       </c>
       <c r="T6" s="5"/>
     </row>
@@ -4962,31 +4938,31 @@
       <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16">
-        <v>103.21599999999999</v>
-      </c>
-      <c r="D7" s="16">
-        <v>158.199432</v>
+      <c r="C7" s="2">
+        <v>106.717</v>
+      </c>
+      <c r="D7" s="2">
+        <v>150.24098000000001</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="16">
-        <v>55.305</v>
-      </c>
-      <c r="I7" s="16">
-        <v>48.402011999999999</v>
+      <c r="H7" s="2">
+        <v>40.356000000000002</v>
+      </c>
+      <c r="I7" s="2">
+        <v>35.400556999999999</v>
       </c>
       <c r="J7" s="5"/>
       <c r="L7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="18">
-        <v>131.483</v>
-      </c>
-      <c r="N7" s="18">
-        <v>188.336545</v>
+      <c r="M7" s="2">
+        <v>139.88499999999999</v>
+      </c>
+      <c r="N7" s="2">
+        <v>199.97241500000001</v>
       </c>
       <c r="O7" s="5"/>
       <c r="Q7" s="15" t="s">
@@ -4994,11 +4970,11 @@
       </c>
       <c r="R7" s="6">
         <f>C12</f>
-        <v>100.46720000000001</v>
+        <v>103.67720000000001</v>
       </c>
       <c r="S7" s="6">
         <f>D12</f>
-        <v>125.1630328</v>
+        <v>114.88823659999998</v>
       </c>
       <c r="T7" s="5"/>
     </row>
@@ -5006,31 +4982,31 @@
       <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16">
-        <v>99.418000000000006</v>
-      </c>
-      <c r="D8" s="16">
-        <v>146.145983</v>
+      <c r="C8" s="2">
+        <v>103.81399999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>146.27462</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="16">
-        <v>43.411999999999999</v>
-      </c>
-      <c r="I8" s="16">
-        <v>70.126869999999997</v>
+      <c r="H8" s="2">
+        <v>39.929000000000002</v>
+      </c>
+      <c r="I8" s="2">
+        <v>35.813851999999997</v>
       </c>
       <c r="J8" s="5"/>
       <c r="L8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="18">
-        <v>135.31899999999999</v>
-      </c>
-      <c r="N8" s="18">
-        <v>157.655112</v>
+      <c r="M8" s="2">
+        <v>139.6</v>
+      </c>
+      <c r="N8" s="2">
+        <v>150.84999300000001</v>
       </c>
       <c r="O8" s="5"/>
       <c r="Q8" s="7"/>
@@ -5040,31 +5016,31 @@
       <c r="B9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16">
-        <v>103.505</v>
-      </c>
-      <c r="D9" s="16">
-        <v>98.755549000000002</v>
+      <c r="C9" s="2">
+        <v>103.205</v>
+      </c>
+      <c r="D9" s="2">
+        <v>91.627950999999996</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="16">
-        <v>52951</v>
-      </c>
-      <c r="I9" s="16">
-        <v>92.315173000000001</v>
+      <c r="H9" s="2">
+        <v>39.134999999999998</v>
+      </c>
+      <c r="I9" s="2">
+        <v>75.86251</v>
       </c>
       <c r="J9" s="5"/>
       <c r="L9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="18">
-        <v>132.857</v>
-      </c>
-      <c r="N9" s="18">
-        <v>202.39423099999999</v>
+      <c r="M9" s="2">
+        <v>137.89099999999999</v>
+      </c>
+      <c r="N9" s="2">
+        <v>151.17600100000001</v>
       </c>
       <c r="O9" s="5"/>
       <c r="Q9" s="7"/>
@@ -5084,23 +5060,21 @@
       <c r="G10" s="7"/>
       <c r="J10" s="5"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
       <c r="O10" s="5"/>
       <c r="Q10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="R10" s="6">
         <f>AVERAGE(R5:R7)</f>
-        <v>3621.3177333333333</v>
+        <v>94.19186666666667</v>
       </c>
       <c r="S10" s="6">
         <f>AVERAGE(S5:S7)</f>
-        <v>124.54847006666667</v>
+        <v>116.42527199999999</v>
       </c>
       <c r="T10" s="5">
         <f t="shared" ref="T10:T11" si="0">S10/R10</f>
-        <v>3.4393135106657126E-2</v>
+        <v>1.236043791466779</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5125,10 +5099,10 @@
         <v>11</v>
       </c>
       <c r="L11" s="7"/>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="11" t="s">
@@ -5139,15 +5113,15 @@
       </c>
       <c r="R11" s="6">
         <f>MEDIAN(R5:R7)</f>
-        <v>133.93099999999998</v>
+        <v>103.67720000000001</v>
       </c>
       <c r="S11" s="6">
         <f>MEDIAN(S5:S7)</f>
-        <v>125.1630328</v>
+        <v>114.88823659999998</v>
       </c>
       <c r="T11" s="5">
         <f t="shared" si="0"/>
-        <v>0.9345336986955971</v>
+        <v>1.1081340603334191</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5156,56 +5130,56 @@
       </c>
       <c r="C12" s="6">
         <f>AVERAGE(C5:C9)</f>
-        <v>100.46720000000001</v>
+        <v>103.67720000000001</v>
       </c>
       <c r="D12" s="6">
         <f>AVERAGE(D5:D9)</f>
-        <v>125.1630328</v>
+        <v>114.88823659999998</v>
       </c>
       <c r="E12" s="5">
         <f>D12/C12</f>
-        <v>1.2458099041279143</v>
+        <v>1.1081340603334191</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="6">
         <f>AVERAGE(H5:H9)</f>
-        <v>10629.555</v>
+        <v>39.946600000000004</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ref="I12" si="1">AVERAGE(I5:I9)</f>
-        <v>69.890517200000005</v>
+        <v>54.237206999999998</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" ref="J12:J13" si="2">I12/H12</f>
-        <v>6.5751122412932624E-3</v>
+        <v>1.3577427615867181</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="6">
         <f t="shared" ref="M12:N12" si="3">AVERAGE(M5:M9)</f>
-        <v>133.93099999999998</v>
-      </c>
-      <c r="N12" s="21">
+        <v>138.95179999999999</v>
+      </c>
+      <c r="N12" s="6">
         <f t="shared" si="3"/>
-        <v>178.59186019999999</v>
+        <v>180.15037240000001</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" ref="O12:O13" si="4">N12/M12</f>
-        <v>1.3334617093876697</v>
+        <v>1.2964954207142334</v>
       </c>
       <c r="Q12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="R12" s="8">
         <f>_xlfn.STDEV.P(R5:R7)</f>
-        <v>4955.590926478847</v>
+        <v>40.971421487774741</v>
       </c>
       <c r="S12" s="8">
         <f>_xlfn.STDEV.P(S5:S7)</f>
-        <v>44.379265113457421</v>
+        <v>51.415323031353083</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>16</v>
@@ -5217,45 +5191,45 @@
       </c>
       <c r="C13" s="6">
         <f>MEDIAN(C5:C9)</f>
-        <v>101.74299999999999</v>
+        <v>103.205</v>
       </c>
       <c r="D13" s="6">
         <f>MEDIAN(D5:D9)</f>
-        <v>133.066329</v>
+        <v>107.099188</v>
       </c>
       <c r="E13" s="5">
         <f>D13/C13</f>
-        <v>1.30786716530867</v>
+        <v>1.0377325517174556</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" ref="H13:I13" si="5">MEDIAN(H5:H9)</f>
-        <v>55.305</v>
+        <v>39.984000000000002</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="5"/>
-        <v>70.126869999999997</v>
+        <v>41.610183999999997</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="2"/>
-        <v>1.2680023506012115</v>
+        <v>1.0406708683473389</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="6">
         <f t="shared" ref="M13:N13" si="6">MEDIAN(M5:M9)</f>
-        <v>134.84899999999999</v>
-      </c>
-      <c r="N13" s="21">
+        <v>138.81700000000001</v>
+      </c>
+      <c r="N13" s="6">
         <f t="shared" si="6"/>
-        <v>188.336545</v>
+        <v>192.95286899999999</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="4"/>
-        <v>1.3966476948290312</v>
+        <v>1.3899801105051974</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5264,11 +5238,11 @@
       </c>
       <c r="C14" s="8">
         <f>_xlfn.STDEV.P(C5:C9)</f>
-        <v>3.3368005873890634</v>
+        <v>1.6715867192580807</v>
       </c>
       <c r="D14" s="8">
         <f>_xlfn.STDEV.P(D5:D9)</f>
-        <v>26.656450927870459</v>
+        <v>28.67191304728658</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>16</v>
@@ -5278,11 +5252,11 @@
       </c>
       <c r="H14" s="8">
         <f t="shared" ref="H14" si="7">_xlfn.STDEV.P(H5:H9)</f>
-        <v>21160.723921684144</v>
+        <v>0.44141617550787721</v>
       </c>
       <c r="I14" s="8">
         <f>_xlfn.STDEV.P(I5:I9)</f>
-        <v>13.964897424575572</v>
+        <v>20.591551337082336</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>16</v>
@@ -5292,18 +5266,18 @@
       </c>
       <c r="M14" s="8">
         <f t="shared" ref="M14:N14" si="8">_xlfn.STDEV.P(M5:M9)</f>
-        <v>1.5095763644148585</v>
+        <v>0.71879549247334473</v>
       </c>
       <c r="N14" s="8">
         <f t="shared" si="8"/>
-        <v>19.344329971087195</v>
+        <v>24.136184777893302</v>
       </c>
       <c r="O14" s="9" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
